--- a/data/InfoData.xlsx
+++ b/data/InfoData.xlsx
@@ -67,10 +67,10 @@
         <v>101</v>
       </c>
       <c r="B1" s="0">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -78,10 +78,10 @@
         <v>102</v>
       </c>
       <c r="B2" s="0">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -89,7 +89,7 @@
         <v>103</v>
       </c>
       <c r="B3" s="0">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C3" s="0">
         <v>2</v>
@@ -100,7 +100,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="0">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C4" s="0">
         <v>2</v>
@@ -111,10 +111,10 @@
         <v>105</v>
       </c>
       <c r="B5" s="0">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -122,10 +122,10 @@
         <v>106</v>
       </c>
       <c r="B6" s="0">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -133,10 +133,10 @@
         <v>107</v>
       </c>
       <c r="B7" s="0">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -144,7 +144,7 @@
         <v>108</v>
       </c>
       <c r="B8" s="0">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C8" s="0">
         <v>2</v>
@@ -155,7 +155,7 @@
         <v>109</v>
       </c>
       <c r="B9" s="0">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C9" s="0">
         <v>2</v>
@@ -166,7 +166,7 @@
         <v>110</v>
       </c>
       <c r="B10" s="0">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C10" s="0">
         <v>2</v>
@@ -177,7 +177,7 @@
         <v>111</v>
       </c>
       <c r="B11" s="0">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C11" s="0">
         <v>2</v>
@@ -188,7 +188,7 @@
         <v>112</v>
       </c>
       <c r="B12" s="0">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C12" s="0">
         <v>2</v>
@@ -199,10 +199,10 @@
         <v>113</v>
       </c>
       <c r="B13" s="0">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -210,10 +210,10 @@
         <v>114</v>
       </c>
       <c r="B14" s="0">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="C14" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -221,10 +221,10 @@
         <v>115</v>
       </c>
       <c r="B15" s="0">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C15" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -232,7 +232,7 @@
         <v>116</v>
       </c>
       <c r="B16" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0">
         <v>1</v>
@@ -243,7 +243,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="0">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C17" s="0">
         <v>2</v>
@@ -254,7 +254,7 @@
         <v>118</v>
       </c>
       <c r="B18" s="0">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C18" s="0">
         <v>2</v>
@@ -265,7 +265,7 @@
         <v>119</v>
       </c>
       <c r="B19" s="0">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C19" s="0">
         <v>2</v>
@@ -276,7 +276,7 @@
         <v>120</v>
       </c>
       <c r="B20" s="0">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C20" s="0">
         <v>2</v>

--- a/data/InfoData.xlsx
+++ b/data/InfoData.xlsx
@@ -67,10 +67,10 @@
         <v>101</v>
       </c>
       <c r="B1" s="0">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -78,10 +78,10 @@
         <v>102</v>
       </c>
       <c r="B2" s="0">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -89,7 +89,7 @@
         <v>103</v>
       </c>
       <c r="B3" s="0">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0">
         <v>2</v>
@@ -100,7 +100,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" s="0">
         <v>2</v>
@@ -111,7 +111,7 @@
         <v>105</v>
       </c>
       <c r="B5" s="0">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0">
         <v>2</v>
@@ -122,10 +122,10 @@
         <v>106</v>
       </c>
       <c r="B6" s="0">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C6" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -133,10 +133,10 @@
         <v>107</v>
       </c>
       <c r="B7" s="0">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -144,7 +144,7 @@
         <v>108</v>
       </c>
       <c r="B8" s="0">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C8" s="0">
         <v>2</v>
@@ -155,7 +155,7 @@
         <v>109</v>
       </c>
       <c r="B9" s="0">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C9" s="0">
         <v>2</v>
@@ -166,7 +166,7 @@
         <v>110</v>
       </c>
       <c r="B10" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C10" s="0">
         <v>2</v>
@@ -177,7 +177,7 @@
         <v>111</v>
       </c>
       <c r="B11" s="0">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C11" s="0">
         <v>2</v>
@@ -188,10 +188,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="0">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -199,10 +199,10 @@
         <v>113</v>
       </c>
       <c r="B13" s="0">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C13" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -210,7 +210,7 @@
         <v>114</v>
       </c>
       <c r="B14" s="0">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C14" s="0">
         <v>2</v>
@@ -221,7 +221,7 @@
         <v>115</v>
       </c>
       <c r="B15" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C15" s="0">
         <v>2</v>
@@ -232,10 +232,10 @@
         <v>116</v>
       </c>
       <c r="B16" s="0">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="C16" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -243,7 +243,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C17" s="0">
         <v>2</v>
@@ -254,10 +254,10 @@
         <v>118</v>
       </c>
       <c r="B18" s="0">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C18" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -265,7 +265,7 @@
         <v>119</v>
       </c>
       <c r="B19" s="0">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C19" s="0">
         <v>2</v>
@@ -276,10 +276,10 @@
         <v>120</v>
       </c>
       <c r="B20" s="0">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="C20" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/InfoData.xlsx
+++ b/data/InfoData.xlsx
@@ -67,7 +67,7 @@
         <v>101</v>
       </c>
       <c r="B1" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C1" s="0">
         <v>2</v>
@@ -78,7 +78,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="0">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C2" s="0">
         <v>2</v>
@@ -89,10 +89,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="0">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -100,7 +100,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="0">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C4" s="0">
         <v>2</v>
@@ -111,7 +111,7 @@
         <v>105</v>
       </c>
       <c r="B5" s="0">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C5" s="0">
         <v>2</v>
@@ -122,7 +122,7 @@
         <v>106</v>
       </c>
       <c r="B6" s="0">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C6" s="0">
         <v>2</v>
@@ -144,7 +144,7 @@
         <v>108</v>
       </c>
       <c r="B8" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C8" s="0">
         <v>2</v>
@@ -155,7 +155,7 @@
         <v>109</v>
       </c>
       <c r="B9" s="0">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C9" s="0">
         <v>2</v>
@@ -166,7 +166,7 @@
         <v>110</v>
       </c>
       <c r="B10" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C10" s="0">
         <v>2</v>
@@ -177,7 +177,7 @@
         <v>111</v>
       </c>
       <c r="B11" s="0">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C11" s="0">
         <v>2</v>
@@ -188,10 +188,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="0">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="C12" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -199,7 +199,7 @@
         <v>113</v>
       </c>
       <c r="B13" s="0">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C13" s="0">
         <v>2</v>
@@ -210,7 +210,7 @@
         <v>114</v>
       </c>
       <c r="B14" s="0">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C14" s="0">
         <v>2</v>
@@ -221,7 +221,7 @@
         <v>115</v>
       </c>
       <c r="B15" s="0">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C15" s="0">
         <v>2</v>
@@ -232,7 +232,7 @@
         <v>116</v>
       </c>
       <c r="B16" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C16" s="0">
         <v>2</v>
@@ -243,7 +243,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="0">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C17" s="0">
         <v>2</v>
@@ -254,10 +254,10 @@
         <v>118</v>
       </c>
       <c r="B18" s="0">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C18" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -265,7 +265,7 @@
         <v>119</v>
       </c>
       <c r="B19" s="0">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C19" s="0">
         <v>2</v>
@@ -276,10 +276,10 @@
         <v>120</v>
       </c>
       <c r="B20" s="0">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C20" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/InfoData.xlsx
+++ b/data/InfoData.xlsx
@@ -67,7 +67,7 @@
         <v>101</v>
       </c>
       <c r="B1" s="0">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C1" s="0">
         <v>2</v>
@@ -78,7 +78,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="0">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C2" s="0">
         <v>2</v>
@@ -89,10 +89,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="0">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -100,7 +100,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="0">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0">
         <v>2</v>
@@ -111,7 +111,7 @@
         <v>105</v>
       </c>
       <c r="B5" s="0">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0">
         <v>2</v>
@@ -122,7 +122,7 @@
         <v>106</v>
       </c>
       <c r="B6" s="0">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C6" s="0">
         <v>2</v>
@@ -133,10 +133,10 @@
         <v>107</v>
       </c>
       <c r="B7" s="0">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="C7" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -144,10 +144,10 @@
         <v>108</v>
       </c>
       <c r="B8" s="0">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -155,10 +155,10 @@
         <v>109</v>
       </c>
       <c r="B9" s="0">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -166,7 +166,7 @@
         <v>110</v>
       </c>
       <c r="B10" s="0">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C10" s="0">
         <v>2</v>
@@ -177,7 +177,7 @@
         <v>111</v>
       </c>
       <c r="B11" s="0">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C11" s="0">
         <v>2</v>
@@ -188,10 +188,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="0">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -199,7 +199,7 @@
         <v>113</v>
       </c>
       <c r="B13" s="0">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C13" s="0">
         <v>2</v>
@@ -210,7 +210,7 @@
         <v>114</v>
       </c>
       <c r="B14" s="0">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C14" s="0">
         <v>2</v>
@@ -221,7 +221,7 @@
         <v>115</v>
       </c>
       <c r="B15" s="0">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C15" s="0">
         <v>2</v>
@@ -232,10 +232,10 @@
         <v>116</v>
       </c>
       <c r="B16" s="0">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="C16" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -243,7 +243,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="0">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C17" s="0">
         <v>2</v>
@@ -254,7 +254,7 @@
         <v>118</v>
       </c>
       <c r="B18" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C18" s="0">
         <v>2</v>
@@ -265,7 +265,7 @@
         <v>119</v>
       </c>
       <c r="B19" s="0">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C19" s="0">
         <v>2</v>
@@ -276,10 +276,10 @@
         <v>120</v>
       </c>
       <c r="B20" s="0">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="C20" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/InfoData.xlsx
+++ b/data/InfoData.xlsx
@@ -29,7 +29,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -38,13 +38,37 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -57,9 +81,9 @@
   <dimension ref="A1:C20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="true"/>
-    <col min="2" max="2" width="4.140625" customWidth="true"/>
-    <col min="3" max="3" width="2.140625" customWidth="true"/>
+    <col min="1" max="1" width="4.15625" customWidth="true"/>
+    <col min="2" max="2" width="4.15625" customWidth="true"/>
+    <col min="3" max="3" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -67,10 +91,10 @@
         <v>101</v>
       </c>
       <c r="B1" s="0">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -78,7 +102,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="0">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C2" s="0">
         <v>2</v>
@@ -89,7 +113,7 @@
         <v>103</v>
       </c>
       <c r="B3" s="0">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="0">
         <v>2</v>
@@ -100,10 +124,10 @@
         <v>104</v>
       </c>
       <c r="B4" s="0">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -111,7 +135,7 @@
         <v>105</v>
       </c>
       <c r="B5" s="0">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C5" s="0">
         <v>2</v>
@@ -122,7 +146,7 @@
         <v>106</v>
       </c>
       <c r="B6" s="0">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C6" s="0">
         <v>2</v>
@@ -133,7 +157,7 @@
         <v>107</v>
       </c>
       <c r="B7" s="0">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C7" s="0">
         <v>2</v>
@@ -144,10 +168,10 @@
         <v>108</v>
       </c>
       <c r="B8" s="0">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="C8" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -155,10 +179,10 @@
         <v>109</v>
       </c>
       <c r="B9" s="0">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="C9" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -166,7 +190,7 @@
         <v>110</v>
       </c>
       <c r="B10" s="0">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C10" s="0">
         <v>2</v>
@@ -177,7 +201,7 @@
         <v>111</v>
       </c>
       <c r="B11" s="0">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C11" s="0">
         <v>2</v>
@@ -188,10 +212,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="0">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C12" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -199,10 +223,10 @@
         <v>113</v>
       </c>
       <c r="B13" s="0">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -221,10 +245,10 @@
         <v>115</v>
       </c>
       <c r="B15" s="0">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -232,10 +256,10 @@
         <v>116</v>
       </c>
       <c r="B16" s="0">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C16" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -243,7 +267,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C17" s="0">
         <v>2</v>
@@ -254,7 +278,7 @@
         <v>118</v>
       </c>
       <c r="B18" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" s="0">
         <v>2</v>
@@ -265,7 +289,7 @@
         <v>119</v>
       </c>
       <c r="B19" s="0">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C19" s="0">
         <v>2</v>
@@ -276,10 +300,10 @@
         <v>120</v>
       </c>
       <c r="B20" s="0">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="C20" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
